--- a/types/spring/optimised_parameters_spring_mech.xlsx
+++ b/types/spring/optimised_parameters_spring_mech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vzlat\Desktop\GIP_2025\types\spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C0CE85-6841-4FC3-B5E4-8D7F5A1A160C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45A2338-63A1-42E9-8B08-D2F7FA841BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,7 +348,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
